--- a/тест кейс vк вход_регистр_сообщества.xlsx
+++ b/тест кейс vк вход_регистр_сообщества.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARK\Desktop\ДЗ\Кейсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARK\Desktop\ДЗ\Git\MyFirst_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C432DF-97FD-4032-BD60-F053080CA6EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25328394-888A-4848-8FB1-DBE52161F423}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="558" windowWidth="46140" windowHeight="25242" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="108">
   <si>
     <t>passed</t>
   </si>
@@ -1063,7 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1153,9 +1153,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1177,6 +1174,21 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1191,21 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1603,11 +1600,11 @@
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4"/>
@@ -1622,8 +1619,8 @@
     <col min="8" max="8" width="3.68359375" customWidth="1"/>
     <col min="9" max="9" width="5.47265625" customWidth="1"/>
     <col min="10" max="10" width="1.15625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="2.15625" customWidth="1"/>
-    <col min="12" max="12" width="15.83984375" customWidth="1"/>
+    <col min="11" max="11" width="4.89453125" customWidth="1"/>
+    <col min="12" max="12" width="10.68359375" customWidth="1"/>
     <col min="13" max="13" width="2.15625" customWidth="1"/>
     <col min="14" max="14" width="13.3125" customWidth="1"/>
     <col min="15" max="15" width="2.15625" customWidth="1"/>
@@ -1680,7 +1677,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:124" ht="10.199999999999999" customHeight="1">
+    <row r="2" spans="1:124" ht="17.7" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1696,7 +1693,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1725,7 +1722,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:124" hidden="1">
+    <row r="3" spans="1:124" ht="16.2" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1739,7 +1736,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="21">
+        <v>44313</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1755,7 +1754,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:124" ht="7.8" customHeight="1">
+    <row r="4" spans="1:124" ht="14.1" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1781,7 +1780,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:124" ht="25.8" hidden="1" customHeight="1">
+    <row r="5" spans="1:124" ht="20.399999999999999" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1823,43 +1822,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="50"/>
+      <c r="R6" s="42"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="50"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1869,29 +1868,29 @@
     </row>
     <row r="7" spans="1:124" ht="53.4" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="50"/>
+      <c r="R7" s="42"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="50"/>
+      <c r="T7" s="42"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1904,7 +1903,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1921,7 +1920,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1957,7 +1958,9 @@
       <c r="I9" s="27"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1993,7 +1996,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -2029,119 +2034,121 @@
       <c r="I11" s="31"/>
       <c r="J11" s="30"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="35"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="35"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="35"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="35"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="35"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="35"/>
-      <c r="BR11" s="34"/>
-      <c r="BS11" s="35"/>
-      <c r="BT11" s="34"/>
-      <c r="BU11" s="35"/>
-      <c r="BV11" s="34"/>
-      <c r="BW11" s="35"/>
-      <c r="BX11" s="34"/>
-      <c r="BY11" s="35"/>
-      <c r="BZ11" s="36"/>
-      <c r="CA11" s="35"/>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="35"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="35"/>
-      <c r="CF11" s="34"/>
-      <c r="CG11" s="35"/>
-      <c r="CH11" s="36"/>
-      <c r="CI11" s="35"/>
-      <c r="CJ11" s="34"/>
-      <c r="CK11" s="35"/>
-      <c r="CL11" s="34"/>
-      <c r="CM11" s="35"/>
-      <c r="CN11" s="34"/>
-      <c r="CO11" s="35"/>
-      <c r="CP11" s="34"/>
-      <c r="CQ11" s="35"/>
-      <c r="CR11" s="34"/>
-      <c r="CS11" s="35"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="35"/>
-      <c r="CV11" s="34"/>
-      <c r="CW11" s="35"/>
-      <c r="CX11" s="34"/>
-      <c r="CY11" s="33"/>
-      <c r="CZ11" s="34"/>
-      <c r="DA11" s="33"/>
-      <c r="DB11" s="34"/>
-      <c r="DC11" s="33"/>
-      <c r="DD11" s="34"/>
-      <c r="DE11" s="33"/>
-      <c r="DF11" s="34"/>
-      <c r="DG11" s="33"/>
-      <c r="DH11" s="34"/>
-      <c r="DI11" s="33"/>
-      <c r="DJ11" s="34"/>
-      <c r="DK11" s="34"/>
-      <c r="DL11" s="34"/>
-      <c r="DM11" s="34"/>
-      <c r="DN11" s="38"/>
-      <c r="DO11" s="34"/>
-      <c r="DP11" s="39"/>
-      <c r="DQ11" s="39"/>
-      <c r="DR11" s="39"/>
-      <c r="DS11" s="39"/>
-      <c r="DT11" s="39"/>
+      <c r="L11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="33"/>
+      <c r="BY11" s="34"/>
+      <c r="BZ11" s="35"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="33"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="34"/>
+      <c r="CF11" s="33"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="35"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="34"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="34"/>
+      <c r="CN11" s="33"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="33"/>
+      <c r="CQ11" s="34"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="34"/>
+      <c r="CT11" s="33"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="33"/>
+      <c r="CW11" s="34"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="32"/>
+      <c r="CZ11" s="33"/>
+      <c r="DA11" s="32"/>
+      <c r="DB11" s="33"/>
+      <c r="DC11" s="32"/>
+      <c r="DD11" s="33"/>
+      <c r="DE11" s="32"/>
+      <c r="DF11" s="33"/>
+      <c r="DG11" s="32"/>
+      <c r="DH11" s="33"/>
+      <c r="DI11" s="32"/>
+      <c r="DJ11" s="33"/>
+      <c r="DK11" s="33"/>
+      <c r="DL11" s="33"/>
+      <c r="DM11" s="33"/>
+      <c r="DN11" s="37"/>
+      <c r="DO11" s="33"/>
+      <c r="DP11" s="38"/>
+      <c r="DQ11" s="38"/>
+      <c r="DR11" s="38"/>
+      <c r="DS11" s="38"/>
+      <c r="DT11" s="38"/>
     </row>
     <row r="12" spans="1:124" ht="72">
       <c r="A12" s="11"/>
@@ -2163,7 +2170,9 @@
       <c r="I12" s="20"/>
       <c r="J12" s="19"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -2184,7 +2193,7 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
@@ -2199,7 +2208,9 @@
       <c r="I13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -2235,7 +2246,9 @@
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5"/>
       <c r="O14" s="10"/>
@@ -2271,7 +2284,9 @@
       <c r="I15" s="20"/>
       <c r="J15" s="19"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5"/>
       <c r="O15" s="10"/>
@@ -2307,7 +2322,9 @@
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="10"/>
@@ -2328,7 +2345,7 @@
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2622,7 +2639,7 @@
       <c r="D25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="40" t="s">
         <v>65</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -2658,7 +2675,7 @@
       <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="40" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2726,11 +2743,11 @@
       <c r="B28" s="3">
         <v>21</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="42"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="19"/>
@@ -3692,6 +3709,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3699,15 +3722,9 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L42 N8:N10 N12:N42" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11" xr:uid="{00000000-0002-0000-0100-000001000000}">
